--- a/TABELA ABACOS.xlsx
+++ b/TABELA ABACOS.xlsx
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
-  <si>
-    <t>trecho</t>
-  </si>
-  <si>
-    <t>sequencia</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>num_poste</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>tipo_poste</t>
   </si>
@@ -63,60 +48,9 @@
     <t>base_concreto</t>
   </si>
   <si>
-    <t>aterr_neutro</t>
-  </si>
-  <si>
-    <t>chave</t>
-  </si>
-  <si>
-    <t>trafo</t>
-  </si>
-  <si>
-    <t>equipamento</t>
-  </si>
-  <si>
-    <t>faixa</t>
-  </si>
-  <si>
-    <t>cort_arvores_isol</t>
-  </si>
-  <si>
-    <t>adiconal_1</t>
-  </si>
-  <si>
-    <t>adiconal_2</t>
-  </si>
-  <si>
-    <t>adiconal_3</t>
-  </si>
-  <si>
-    <t>adiconal_4</t>
-  </si>
-  <si>
-    <t>adiconal_5</t>
-  </si>
-  <si>
-    <t>adiconal_6</t>
-  </si>
-  <si>
-    <t>adiconal_7</t>
-  </si>
-  <si>
-    <t>Implantar</t>
-  </si>
-  <si>
-    <t>Existente</t>
-  </si>
-  <si>
     <t>EXIST</t>
   </si>
   <si>
-    <t>Retirar</t>
-  </si>
-  <si>
-    <t>deslocar</t>
-  </si>
-  <si>
     <t>DT9/300</t>
   </si>
   <si>
@@ -126,27 +60,12 @@
     <t>BR</t>
   </si>
   <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>PDT11/1000</t>
   </si>
   <si>
-    <t>Trecho 1-5</t>
-  </si>
-  <si>
     <t>PDT10/150</t>
   </si>
   <si>
-    <t>FUS</t>
-  </si>
-  <si>
-    <t>SDFASFD</t>
-  </si>
-  <si>
-    <t>ASFSAFDSD</t>
-  </si>
-  <si>
     <t>PDT11/300</t>
   </si>
   <si>
@@ -165,19 +84,28 @@
     <t>N3</t>
   </si>
   <si>
-    <t>TRF_TRIF_150KVA</t>
-  </si>
-  <si>
-    <t>TRF_TRIF_112,5KVA</t>
-  </si>
-  <si>
     <t>1EA</t>
   </si>
   <si>
     <t>BC2</t>
   </si>
   <si>
-    <t>RETIR</t>
+    <t>abaco</t>
+  </si>
+  <si>
+    <t>MT7</t>
+  </si>
+  <si>
+    <t>MT8</t>
+  </si>
+  <si>
+    <t>SI1</t>
+  </si>
+  <si>
+    <t>lista_abaco</t>
+  </si>
+  <si>
+    <t>[(-1.0, 0.0), (-1.0, 217.143), (160.0, 217.143), (160.0, 0.0), (-1.0, 0.0)]]</t>
   </si>
 </sst>
 </file>
@@ -661,8 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -984,419 +913,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="20" width="20.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" customWidth="1"/>
-    <col min="22" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>728526</v>
-      </c>
-      <c r="D2">
-        <v>8128784</v>
-      </c>
-      <c r="E2">
-        <v>46464546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>728534</v>
-      </c>
-      <c r="D6">
-        <v>8128755</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>728551</v>
-      </c>
-      <c r="D10">
-        <v>8128690</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="R11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>728586</v>
-      </c>
-      <c r="D18">
-        <v>8128559</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>728549</v>
-      </c>
-      <c r="D19">
-        <v>8128359</v>
-      </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>728497</v>
-      </c>
-      <c r="D20">
-        <v>8128340</v>
-      </c>
-      <c r="F20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>728446</v>
-      </c>
-      <c r="D21">
-        <v>8128321</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TABELA ABACOS.xlsx
+++ b/TABELA ABACOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TESTE_PLOTAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\matriz_csv_to_kml\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>tipo_poste</t>
   </si>
@@ -106,6 +106,15 @@
   </si>
   <si>
     <t>[(-1.0, 0.0), (-1.0, 217.143), (160.0, 217.143), (160.0, 0.0), (-1.0, 0.0)]]</t>
+  </si>
+  <si>
+    <t>rotacao_poste</t>
+  </si>
+  <si>
+    <t>topo1</t>
+  </si>
+  <si>
+    <t>bissetriz2</t>
   </si>
 </sst>
 </file>
@@ -913,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +943,7 @@
     <col min="11" max="11" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -966,10 +975,13 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -977,18 +989,27 @@
         <v>9</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -996,12 +1017,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1011,8 +1032,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1023,7 +1047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1034,7 +1058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1054,7 +1078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1065,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1082,7 +1106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1109,12 +1133,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
